--- a/ModeloReporte.xlsx
+++ b/ModeloReporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCPGrupo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46141631-159A-4A5E-A2FC-3F13A2F8C0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69D5152-A48A-4EDA-B8D3-684D2301359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9831876-C2F0-4157-B9C1-2ECA0C073DA7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="176">
   <si>
     <t>Nombre Cals</t>
   </si>
@@ -214,15 +214,6 @@
     <t>NTT DATA</t>
   </si>
   <si>
-    <t>T11305</t>
-  </si>
-  <si>
-    <t>CANDIOTTI</t>
-  </si>
-  <si>
-    <t>URQUIZO</t>
-  </si>
-  <si>
     <t>CHRISTIAN  ERNESTO</t>
   </si>
   <si>
@@ -554,13 +545,31 @@
   </si>
   <si>
     <t>==&gt; JSON</t>
+  </si>
+  <si>
+    <t>CCFW</t>
+  </si>
+  <si>
+    <t>UTKK</t>
+  </si>
+  <si>
+    <t>Cargar porcentaje de team member</t>
+  </si>
+  <si>
+    <t>Listado de reporte Base Activos</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Richard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +590,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -596,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -604,15 +620,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,8 +662,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBFD8600-C5BD-4C31-A522-FD72C2367F10}" name="Tabla1" displayName="Tabla1" ref="B5:T26" totalsRowShown="0">
-  <autoFilter ref="B5:T26" xr:uid="{CBFD8600-C5BD-4C31-A522-FD72C2367F10}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBFD8600-C5BD-4C31-A522-FD72C2367F10}" name="Tabla1" displayName="Tabla1" ref="B5:T25" totalsRowShown="0">
+  <autoFilter ref="B5:T25" xr:uid="{CBFD8600-C5BD-4C31-A522-FD72C2367F10}">
     <filterColumn colId="2">
       <filters>
         <filter val="JEAN PAUL FRANCIA"/>
@@ -669,8 +696,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DDA909CF-4D7D-40B6-ACA0-41917619E394}" name="Tabla2" displayName="Tabla2" ref="D32:G34" totalsRowShown="0">
-  <autoFilter ref="D32:G34" xr:uid="{DDA909CF-4D7D-40B6-ACA0-41917619E394}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DDA909CF-4D7D-40B6-ACA0-41917619E394}" name="Tabla2" displayName="Tabla2" ref="D31:G34" totalsRowShown="0">
+  <autoFilter ref="D31:G34" xr:uid="{DDA909CF-4D7D-40B6-ACA0-41917619E394}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B3314A55-B0B4-4F87-890D-7CEB1E5C834B}" name="Team_Member"/>
     <tableColumn id="2" xr3:uid="{18629CBB-A1BA-4D87-8EDB-9604DA1608BF}" name="Aplicación"/>
@@ -978,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C8D875-A6CF-4957-ABFE-8B9EBEA5A0D8}">
-  <dimension ref="B3:AH51"/>
+  <dimension ref="B1:AH52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:T12"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,12 +1030,17 @@
     <col min="20" max="20" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>163</v>
+      <c r="B3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1255,16 +1287,16 @@
         <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
         <v>44</v>
@@ -1276,10 +1308,10 @@
         <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s">
         <v>33</v>
@@ -1291,7 +1323,7 @@
         <v>34</v>
       </c>
       <c r="S9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -1311,16 +1343,16 @@
         <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
         <v>44</v>
@@ -1332,10 +1364,10 @@
         <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s">
         <v>33</v>
@@ -1347,7 +1379,7 @@
         <v>34</v>
       </c>
       <c r="S10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -1367,16 +1399,16 @@
         <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -1388,10 +1420,10 @@
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s">
         <v>33</v>
@@ -1403,63 +1435,63 @@
         <v>34</v>
       </c>
       <c r="S11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="1">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
@@ -1467,28 +1499,28 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s">
         <v>28</v>
@@ -1506,13 +1538,13 @@
         <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="1">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S13" t="s">
         <v>35</v>
@@ -1520,102 +1552,102 @@
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s">
         <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N14" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R14" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="S14" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>92</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
         <v>93</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
         <v>94</v>
       </c>
-      <c r="F15" t="s">
+      <c r="J15" t="s">
         <v>95</v>
       </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
         <v>96</v>
-      </c>
-      <c r="I15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15" t="s">
-        <v>99</v>
       </c>
       <c r="L15" t="s">
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P15" t="s">
         <v>103</v>
@@ -1624,151 +1656,151 @@
         <v>0.25</v>
       </c>
       <c r="R15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
         <v>92</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
         <v>93</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
         <v>94</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
         <v>95</v>
       </c>
-      <c r="G16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
         <v>96</v>
-      </c>
-      <c r="I16" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" t="s">
-        <v>99</v>
       </c>
       <c r="L16" t="s">
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R16" t="s">
         <v>101</v>
       </c>
-      <c r="O16" t="s">
+      <c r="S16" t="s">
         <v>102</v>
-      </c>
-      <c r="P16" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="R16" t="s">
-        <v>104</v>
-      </c>
-      <c r="S16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="L17" t="s">
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O17" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="S17" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K18" t="s">
         <v>28</v>
@@ -1777,54 +1809,54 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K19" t="s">
         <v>28</v>
@@ -1833,54 +1865,54 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="1">
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K20" t="s">
         <v>28</v>
@@ -1889,54 +1921,54 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="1">
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K21" t="s">
         <v>28</v>
@@ -1945,54 +1977,54 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O21" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R21" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="S21" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>92</v>
       </c>
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" t="s">
-        <v>95</v>
-      </c>
       <c r="G22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" t="s">
         <v>134</v>
-      </c>
-      <c r="H22" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" t="s">
-        <v>136</v>
-      </c>
-      <c r="J22" t="s">
-        <v>137</v>
       </c>
       <c r="K22" t="s">
         <v>28</v>
@@ -2001,54 +2033,54 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R22" t="s">
+        <v>136</v>
+      </c>
+      <c r="S22" t="s">
         <v>102</v>
-      </c>
-      <c r="P22" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R22" t="s">
-        <v>139</v>
-      </c>
-      <c r="S22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s">
         <v>28</v>
@@ -2057,396 +2089,309 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O23" t="s">
+        <v>99</v>
+      </c>
+      <c r="P23" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" t="s">
         <v>102</v>
       </c>
-      <c r="P23" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R23" t="s">
-        <v>139</v>
-      </c>
-      <c r="S23" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" t="s">
-        <v>143</v>
-      </c>
-      <c r="I24" t="s">
-        <v>144</v>
-      </c>
       <c r="J24" t="s">
-        <v>145</v>
-      </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" t="s">
-        <v>101</v>
-      </c>
-      <c r="O24" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
-      </c>
-      <c r="R24" t="s">
-        <v>139</v>
-      </c>
-      <c r="S24" t="s">
-        <v>105</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>150</v>
-      </c>
-      <c r="P26" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0.5</v>
-      </c>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q27" s="1"/>
+      <c r="D27" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>160</v>
-      </c>
-      <c r="I29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" t="s">
+        <v>152</v>
+      </c>
+      <c r="M28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I31" t="s">
+        <v>172</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M29" t="s">
+      <c r="O31" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>173</v>
       </c>
       <c r="M32" t="s">
-        <v>157</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O32" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="F33">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D34" s="2" t="s">
-        <v>150</v>
+      <c r="D34" t="s">
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="F34">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="37" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="E37" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="I34" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D38" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>170</v>
-      </c>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>167</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="M42" t="s">
-        <v>157</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="O44" t="s">
-        <v>166</v>
-      </c>
-      <c r="P44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>1</v>
-      </c>
-      <c r="R44" t="s">
-        <v>2</v>
-      </c>
-      <c r="S44" t="s">
-        <v>3</v>
-      </c>
-      <c r="T44" t="s">
-        <v>4</v>
-      </c>
-      <c r="U44" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" t="s">
-        <v>6</v>
-      </c>
-      <c r="W44" t="s">
-        <v>7</v>
-      </c>
-      <c r="X44" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>18</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M43" t="s">
+        <v>154</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O43" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="4:34" x14ac:dyDescent="0.25">
       <c r="O45" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P45" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="S45" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="U45" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="V45" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="W45" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="X45" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="Y45" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Z45" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AA45" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AB45" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AC45" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AD45" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE45" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>15</v>
       </c>
       <c r="AF45" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AG45" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="4:34" x14ac:dyDescent="0.25">
       <c r="O46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P46" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="Q46" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="R46" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="S46" t="s">
         <v>22</v>
       </c>
       <c r="T46" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="U46" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="V46" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="W46" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="X46" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="Y46" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="Z46" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AA46" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AB46" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AC46" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AD46" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AE46" s="1">
         <v>1</v>
       </c>
       <c r="AF46" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="AG46" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="4:34" x14ac:dyDescent="0.25">
       <c r="O47" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P47" t="s">
         <v>36</v>
@@ -2464,16 +2409,16 @@
         <v>39</v>
       </c>
       <c r="U47" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="V47" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="W47" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="X47" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="Y47" t="s">
         <v>44</v>
@@ -2504,19 +2449,78 @@
       </c>
     </row>
     <row r="48" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE48" s="1"/>
-    </row>
-    <row r="49" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>165</v>
+      </c>
+      <c r="P48" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>37</v>
+      </c>
+      <c r="R48" t="s">
+        <v>38</v>
+      </c>
+      <c r="S48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U48" t="s">
+        <v>51</v>
+      </c>
+      <c r="V48" t="s">
+        <v>52</v>
+      </c>
+      <c r="W48" t="s">
+        <v>53</v>
+      </c>
+      <c r="X48" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
       <c r="AE49" s="1"/>
     </row>
-    <row r="50" spans="31:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:31" x14ac:dyDescent="0.25">
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="31:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:31" x14ac:dyDescent="0.25">
       <c r="AE51" s="1"/>
+    </row>
+    <row r="52" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="AE52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ModeloReporte.xlsx
+++ b/ModeloReporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCPGrupo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69D5152-A48A-4EDA-B8D3-684D2301359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C8BDEE-824C-48C3-9F7B-7B7BA27E237F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9831876-C2F0-4157-B9C1-2ECA0C073DA7}"/>
   </bookViews>
@@ -598,7 +598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,8 +611,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -629,17 +635,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,8 +720,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DDA909CF-4D7D-40B6-ACA0-41917619E394}" name="Tabla2" displayName="Tabla2" ref="D31:G34" totalsRowShown="0">
-  <autoFilter ref="D31:G34" xr:uid="{DDA909CF-4D7D-40B6-ACA0-41917619E394}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DDA909CF-4D7D-40B6-ACA0-41917619E394}" name="Tabla2" displayName="Tabla2" ref="D33:G36" totalsRowShown="0">
+  <autoFilter ref="D33:G36" xr:uid="{DDA909CF-4D7D-40B6-ACA0-41917619E394}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B3314A55-B0B4-4F87-890D-7CEB1E5C834B}" name="Team_Member"/>
     <tableColumn id="2" xr3:uid="{18629CBB-A1BA-4D87-8EDB-9604DA1608BF}" name="Aplicación"/>
@@ -1005,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C8D875-A6CF-4957-ABFE-8B9EBEA5A0D8}">
-  <dimension ref="B1:AH52"/>
+  <dimension ref="B1:AH54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,74 +2159,52 @@
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="27" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>157</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I30" t="s">
         <v>152</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M30" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" t="s">
-        <v>158</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I31" t="s">
-        <v>172</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" t="s">
-        <v>170</v>
-      </c>
-      <c r="F32">
-        <v>50</v>
-      </c>
-      <c r="I32" t="s">
-        <v>173</v>
-      </c>
-      <c r="M32" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="33" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33">
-        <v>20</v>
+        <v>145</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" t="s">
+        <v>172</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O33" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="4:34" x14ac:dyDescent="0.25">
@@ -2210,242 +2212,152 @@
         <v>59</v>
       </c>
       <c r="E34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>173</v>
+      </c>
+      <c r="M34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" t="s">
         <v>171</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <v>30</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I36" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M36" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="E36" s="3" t="s">
+    <row r="38" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="E38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D38" s="5" t="s">
+    <row r="40" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D40" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D40" s="5"/>
-    </row>
     <row r="41" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>167</v>
-      </c>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>161</v>
-      </c>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>164</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M45" t="s">
         <v>154</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O45" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="O45" t="s">
-        <v>163</v>
-      </c>
-      <c r="P45" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>1</v>
-      </c>
-      <c r="R45" t="s">
-        <v>2</v>
-      </c>
-      <c r="S45" t="s">
-        <v>3</v>
-      </c>
-      <c r="T45" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" t="s">
-        <v>6</v>
-      </c>
-      <c r="W45" t="s">
-        <v>7</v>
-      </c>
-      <c r="X45" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="O46" t="s">
-        <v>165</v>
-      </c>
-      <c r="P46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" t="s">
-        <v>21</v>
-      </c>
-      <c r="S46" t="s">
-        <v>22</v>
-      </c>
-      <c r="T46" t="s">
-        <v>23</v>
-      </c>
-      <c r="U46" t="s">
-        <v>24</v>
-      </c>
-      <c r="V46" t="s">
-        <v>25</v>
-      </c>
-      <c r="W46" t="s">
-        <v>26</v>
-      </c>
-      <c r="X46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE46" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="47" spans="4:34" x14ac:dyDescent="0.25">
       <c r="O47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P47" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="R47" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="S47" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="T47" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="U47" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="V47" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="W47" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="X47" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="Y47" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="Z47" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AA47" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="AB47" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="AC47" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="AD47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE47" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>15</v>
       </c>
       <c r="AF47" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="AG47" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="4:34" x14ac:dyDescent="0.25">
@@ -2453,74 +2365,192 @@
         <v>165</v>
       </c>
       <c r="P48" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="Q48" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="R48" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="S48" t="s">
         <v>22</v>
       </c>
       <c r="T48" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="U48" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="V48" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="W48" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="X48" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="Y48" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="Z48" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AA48" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AB48" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AC48" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AD48" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AE48" s="1">
         <v>1</v>
       </c>
       <c r="AF48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="O49" t="s">
+        <v>165</v>
+      </c>
+      <c r="P49" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>37</v>
+      </c>
+      <c r="R49" t="s">
+        <v>38</v>
+      </c>
+      <c r="S49" t="s">
+        <v>22</v>
+      </c>
+      <c r="T49" t="s">
+        <v>39</v>
+      </c>
+      <c r="U49" t="s">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s">
+        <v>41</v>
+      </c>
+      <c r="W49" t="s">
+        <v>42</v>
+      </c>
+      <c r="X49" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="s">
         <v>49</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AG49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
+    <row r="50" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>165</v>
+      </c>
+      <c r="P50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>37</v>
+      </c>
+      <c r="R50" t="s">
+        <v>38</v>
+      </c>
+      <c r="S50" t="s">
+        <v>22</v>
+      </c>
+      <c r="T50" t="s">
+        <v>39</v>
+      </c>
+      <c r="U50" t="s">
+        <v>51</v>
+      </c>
+      <c r="V50" t="s">
+        <v>52</v>
+      </c>
+      <c r="W50" t="s">
+        <v>53</v>
+      </c>
+      <c r="X50" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>166</v>
       </c>
-      <c r="AE49" s="1"/>
-    </row>
-    <row r="50" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="AE50" s="1"/>
-    </row>
-    <row r="51" spans="4:31" x14ac:dyDescent="0.25">
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:33" x14ac:dyDescent="0.25">
       <c r="AE52" s="1"/>
+    </row>
+    <row r="53" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="AE53" s="1"/>
+    </row>
+    <row r="54" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="AE54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ModeloReporte.xlsx
+++ b/ModeloReporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCPGrupo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C8BDEE-824C-48C3-9F7B-7B7BA27E237F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08115A95-8725-46B3-B4E4-773A55EC45B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9831876-C2F0-4157-B9C1-2ECA0C073DA7}"/>
   </bookViews>
@@ -683,6 +683,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB333B61-9958-46A9-B8D8-0BEACE5405B4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1028,11 +1101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C8D875-A6CF-4957-ABFE-8B9EBEA5A0D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C8D875-A6CF-4957-ABFE-8B9EBEA5A0D8}">
   <dimension ref="B1:AH54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,9 +2628,39 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objeto empaquetador del shell" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objeto empaquetador del shell" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>